--- a/Java学習まとめ.xlsx
+++ b/Java学習まとめ.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>パイザを使用したJava学習まとめ</t>
   </si>
@@ -53,14 +53,23 @@
     <t>２次元配列の作成</t>
   </si>
   <si>
+    <t>※編集途中です</t>
+  </si>
+  <si>
     <t>10/1、2</t>
+  </si>
+  <si>
+    <t>標準入力のコードはパイザの練習問題で必須になるので、まとめ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -80,6 +89,10 @@
       <sz val="11.0"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -109,6 +122,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -757,8 +776,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6858000" cy="4486275"/>
     <xdr:grpSp>
@@ -808,8 +827,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4071525" y="865475"/>
-            <a:ext cx="1219500" cy="471900"/>
+            <a:off x="4120700" y="816275"/>
+            <a:ext cx="2242200" cy="668700"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
@@ -851,6 +870,53 @@
             </a:r>
             <a:endParaRPr sz="1000"/>
           </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>()なし・・・配列の要素数</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>()あり・・・文字列の長さ</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp>
@@ -991,41 +1057,194 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1300"/>
-              <a:t>1.teams[0〜x行]を「team」に取得</a:t>
-            </a:r>
-            <a:endParaRPr sz="1300"/>
-          </a:p>
-          <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>.teams[0〜x行]を「team」に取得</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>2.取得したteamの0番目の要素から「player」に代入</a:t>
             </a:r>
-            <a:endParaRPr sz="1300"/>
-          </a:p>
-          <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1300"/>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>3.playerにはteams[x][y]の値が入る</a:t>
             </a:r>
-            <a:endParaRPr sz="1300"/>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6315075" cy="5972175"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="6299100" cy="5949751"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="6299100" cy="5949751"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="6299100" cy="5949751"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Shape 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2084925" y="1012975"/>
+            <a:ext cx="1219500" cy="393300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Shape 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3707650" y="988375"/>
+            <a:ext cx="1298100" cy="442500"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd fmla="val -100812" name="adj1"/>
+              <a:gd fmla="val -18887" name="adj2"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F4CCCC"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>同じ配列が作成される</a:t>
+            </a:r>
+            <a:endParaRPr sz="800"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1060,7 +1279,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr descr="スクリーンショット 2020-10-02 14.14.32.png" id="20" name="Shape 20"/>
+          <xdr:cNvPr descr="スクリーンショット 2020-10-02 14.14.32.png" id="23" name="Shape 23"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -1087,7 +1306,7 @@
       </xdr:pic>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Shape 21"/>
+          <xdr:cNvPr id="24" name="Shape 24"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1133,7 +1352,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Shape 22"/>
+          <xdr:cNvPr id="25" name="Shape 25"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1179,7 +1398,7 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Shape 23"/>
+          <xdr:cNvPr id="26" name="Shape 26"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1257,6 +1476,404 @@
               <a:t>動画学習だと「println」（改行あり）の使用が多いため、改行なしの場合すぐに出て来なかった。</a:t>
             </a:r>
             <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6381750" cy="4171950"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="6583099" cy="4292850"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="6583099" cy="4292850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="Shape 27"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="6583099" cy="4292850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6610350" cy="4114800"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="6594150" cy="4096150"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="6594150" cy="4096150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="Shape 28"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="6594150" cy="4096150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Shape 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1386675" y="1367025"/>
+            <a:ext cx="3943800" cy="167100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="19050">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Shape 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1873450" y="1834125"/>
+            <a:ext cx="1509600" cy="167100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Shape 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2822450" y="2001225"/>
+            <a:ext cx="1229400" cy="167100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Shape 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3894525" y="2232450"/>
+            <a:ext cx="2783100" cy="1229400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E6B8AF"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:highlight>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:highlight>
+                <a:latin typeface="Meiryo"/>
+                <a:ea typeface="Meiryo"/>
+                <a:cs typeface="Meiryo"/>
+                <a:sym typeface="Meiryo"/>
+              </a:rPr>
+              <a:t>hasNext関数</a:t>
+            </a:r>
+            <a:endParaRPr b="1" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+              <a:highlight>
+                <a:srgbClr val="FFFFFF"/>
+              </a:highlight>
+              <a:latin typeface="Meiryo"/>
+              <a:ea typeface="Meiryo"/>
+              <a:cs typeface="Meiryo"/>
+              <a:sym typeface="Meiryo"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:highlight>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:highlight>
+                <a:latin typeface="Meiryo"/>
+                <a:ea typeface="Meiryo"/>
+                <a:cs typeface="Meiryo"/>
+                <a:sym typeface="Meiryo"/>
+              </a:rPr>
+              <a:t>Scannerクラスでファイルを読み込んだ際にまだ繰り返しできるかを判定する処理</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000">
+              <a:highlight>
+                <a:srgbClr val="FFFFFF"/>
+              </a:highlight>
+              <a:latin typeface="Meiryo"/>
+              <a:ea typeface="Meiryo"/>
+              <a:cs typeface="Meiryo"/>
+              <a:sym typeface="Meiryo"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1000">
+              <a:highlight>
+                <a:srgbClr val="FFFFFF"/>
+              </a:highlight>
+              <a:latin typeface="Meiryo"/>
+              <a:ea typeface="Meiryo"/>
+              <a:cs typeface="Meiryo"/>
+              <a:sym typeface="Meiryo"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:highlight>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:highlight>
+                <a:latin typeface="Meiryo"/>
+                <a:ea typeface="Meiryo"/>
+                <a:cs typeface="Meiryo"/>
+                <a:sym typeface="Meiryo"/>
+              </a:rPr>
+              <a:t>next関数とセットで使用される</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000">
+              <a:highlight>
+                <a:srgbClr val="FFFFFF"/>
+              </a:highlight>
+              <a:latin typeface="Meiryo"/>
+              <a:ea typeface="Meiryo"/>
+              <a:cs typeface="Meiryo"/>
+              <a:sym typeface="Meiryo"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1530,6 +2147,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="43">
+      <c r="B43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1547,7 +2169,17 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>44109.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
